--- a/NEW HR/PANGHULAN, CONRADO.xlsx
+++ b/NEW HR/PANGHULAN, CONRADO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>5/15,17/2023</t>
+  </si>
+  <si>
+    <t>9/25,26/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>12/21,22,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -3307,10 +3316,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,7 +3480,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3481,7 +3490,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4917,13 +4926,15 @@
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4931,15 +4942,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4947,15 +4962,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4963,15 +4982,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4979,15 +5002,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4995,15 +5022,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5011,15 +5042,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5027,10 +5062,16 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -5040,7 +5081,9 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
@@ -5841,10 +5884,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6024,7 +6067,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6370,8 +6413,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6380,14 +6427,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>2</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
@@ -6399,10 +6454,14 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="49">
+        <v>45264</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>45261</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
